--- a/Recycling/Met_rec/metrec_Max_full_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Max_full_Max.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1917,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>63821.67851678838</v>
+        <v>63821.67851678839</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>384877.2807602865</v>
+        <v>384877.2807602866</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1319979.233901059</v>
+        <v>1319979.23390106</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3963,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3270520.887466247</v>
+        <v>3270520.887466246</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4227,7 +4227,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3380988.514497867</v>
+        <v>3380988.514497868</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5349,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1438918.770896601</v>
+        <v>1438918.7708966</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5415,7 +5415,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1696090.278107329</v>
+        <v>1696090.278107328</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6603,7 +6603,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>2287182.201352462</v>
+        <v>2287182.201352461</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Max_full_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Max_full_Max.xlsx
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>0.6257548843538315</v>
+        <v>0.6257548843538314</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1240,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7286390.346697052</v>
+        <v>7286390.346697053</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>0.379751073945224</v>
+        <v>0.3797510739452239</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2260,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9.118598949567637</v>
+        <v>9.118598949567639</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>36.18695361884667</v>
+        <v>36.18695361884666</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2668,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>17.97916117805041</v>
+        <v>17.97916117805042</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>61.78475586503148</v>
+        <v>61.78475586503147</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3688,7 +3688,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>91.17133424930573</v>
+        <v>91.17133424930572</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3848,7 +3848,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>372.6647741482764</v>
+        <v>372.6647741482765</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4008,7 +4008,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>51.12448415242743</v>
+        <v>51.12448415242744</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4912,7 +4912,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>830.4506374154161</v>
+        <v>830.4506374154159</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5028,7 +5028,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>491.8317347371989</v>
+        <v>491.831734737199</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7520,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>84278.65588917646</v>
+        <v>84278.65588917647</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9108,7 +9108,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>267376.6380208504</v>
+        <v>267376.6380208506</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10420,7 +10420,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>603451.5934618375</v>
+        <v>603451.5934618376</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10580,7 +10580,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>347093.6459993459</v>
+        <v>347093.6459993458</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10740,7 +10740,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>886513.4589303008</v>
+        <v>886513.4589303009</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10784,7 +10784,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>419235.9046120653</v>
+        <v>419235.9046120652</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10944,7 +10944,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1068496.562807058</v>
+        <v>1068496.562807057</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10988,7 +10988,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>520602.4453766394</v>
+        <v>520602.4453766395</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11760,7 +11760,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2043969.416033111</v>
+        <v>2043969.416033112</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11804,7 +11804,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1246767.257182021</v>
+        <v>1246767.25718202</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12868,7 +12868,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3210956.469527534</v>
+        <v>3210956.469527533</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14092,7 +14092,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4359454.574180878</v>
+        <v>4359454.574180879</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14208,7 +14208,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2555849.608078864</v>
+        <v>2555849.608078865</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -14616,7 +14616,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2603305.864005587</v>
+        <v>2603305.864005586</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -15724,7 +15724,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5075664.193245134</v>
+        <v>5075664.193245133</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -16176,7 +16176,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>859068.940850645</v>
+        <v>859068.9408506451</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -16452,7 +16452,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1994268.261589078</v>
+        <v>1994268.261589079</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16584,7 +16584,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>767535.0039104954</v>
+        <v>767535.0039104953</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -16904,7 +16904,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1109466.840968748</v>
+        <v>1109466.840968747</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -16992,7 +16992,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>731516.11463278</v>
+        <v>731516.1146327801</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1820092.555092911</v>
+        <v>1820092.55509291</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17196,7 +17196,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>713273.0047895748</v>
+        <v>713273.0047895747</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18696,7 +18696,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1931284.997792491</v>
+        <v>1931284.997792492</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18784,7 +18784,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5340704.817120967</v>
+        <v>5340704.817120968</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20212,7 +20212,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6269192.310480684</v>
+        <v>6269192.310480685</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20576,7 +20576,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1418000.899741092</v>
+        <v>1418000.899741091</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -21072,7 +21072,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>889699.9671616678</v>
+        <v>889699.9671616679</v>
       </c>
     </row>
     <row r="17" spans="1:4">
